--- a/SUBTITLE/Data/Config.xlsx
+++ b/SUBTITLE/Data/Config.xlsx
@@ -163,7 +163,7 @@
     <t>sowmya.jagadish@primefocus.com</t>
   </si>
   <si>
-    <t>009988-12</t>
+    <t>147871-88</t>
   </si>
 </sst>
 </file>
@@ -653,7 +653,7 @@
   <dimension ref="A1:Z971"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -745,7 +745,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="13">
-        <v>9988</v>
+        <v>147871</v>
       </c>
       <c r="C6" s="15"/>
     </row>
@@ -754,7 +754,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="13">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="C7" s="14"/>
     </row>
